--- a/Data/Budget Monitoring.xlsx
+++ b/Data/Budget Monitoring.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GASCO_DASHBOARD\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\STW\Desktop\Budjet_GASCO_dashboard\GASCO_DASHBOARD\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C4CD70-2A97-462C-BAC7-DD873C753C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614FDC23-C92C-44F0-B7DC-2A383003E205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="360" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="56">
   <si>
     <t>Cost Center Number</t>
   </si>
@@ -34,6 +34,21 @@
     <t>Account name</t>
   </si>
   <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Quarter</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>2023 Budget</t>
+  </si>
+  <si>
+    <t>2024 Budget</t>
+  </si>
+  <si>
     <t>2025 Budget</t>
   </si>
   <si>
@@ -49,6 +64,9 @@
     <t>Electricity For Oper</t>
   </si>
   <si>
+    <t>Q3</t>
+  </si>
+  <si>
     <t>Diesel Consumption</t>
   </si>
   <si>
@@ -58,12 +76,18 @@
     <t xml:space="preserve">Maintenance Of Transportation </t>
   </si>
   <si>
+    <t>Q4</t>
+  </si>
+  <si>
     <t>Car Fees &amp; Licenses</t>
   </si>
   <si>
     <t xml:space="preserve"> Non-Workers Bonus</t>
   </si>
   <si>
+    <t>Q1</t>
+  </si>
+  <si>
     <t>Dahshour Building</t>
   </si>
   <si>
@@ -77,6 +101,9 @@
   </si>
   <si>
     <t>Water Consumption</t>
+  </si>
+  <si>
+    <t>Q2</t>
   </si>
   <si>
     <t xml:space="preserve"> Maintenance Services</t>
@@ -167,18 +194,21 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -221,7 +251,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -524,22 +554,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="E3" zoomScale="131" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="24.796875" customWidth="1"/>
-    <col min="4" max="4" width="28.59765625" customWidth="1"/>
-    <col min="5" max="5" width="33.796875" customWidth="1"/>
-    <col min="6" max="6" width="46" customWidth="1"/>
-    <col min="7" max="7" width="48.5" customWidth="1"/>
+    <col min="1" max="1" width="13.26953125" customWidth="1"/>
+    <col min="2" max="2" width="17.36328125" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" customWidth="1"/>
+    <col min="4" max="4" width="23.1796875" customWidth="1"/>
+    <col min="5" max="5" width="20.453125" customWidth="1"/>
+    <col min="6" max="6" width="14.26953125" customWidth="1"/>
+    <col min="8" max="8" width="16.08984375" customWidth="1"/>
+    <col min="9" max="9" width="18.26953125" customWidth="1"/>
+    <col min="10" max="10" width="17.453125" customWidth="1"/>
+    <col min="11" max="11" width="14.08984375" customWidth="1"/>
+    <col min="12" max="12" width="14.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -561,925 +597,1540 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>5113400000</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>3204000001</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2">
+        <v>45843</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2">
+        <v>2025</v>
+      </c>
+      <c r="H2">
+        <v>5613388</v>
+      </c>
+      <c r="I2">
+        <v>5156220</v>
+      </c>
+      <c r="J2">
         <v>5400000</v>
       </c>
-      <c r="F2" s="2">
+      <c r="K2">
         <v>3240000</v>
       </c>
-      <c r="G2">
-        <v>5400000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L2">
+        <v>2160000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>5113400000</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>3204000005</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2">
+        <v>45919</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3">
+        <v>2025</v>
+      </c>
+      <c r="H3">
+        <v>94493</v>
+      </c>
+      <c r="I3">
+        <v>69176</v>
+      </c>
+      <c r="J3">
         <v>81000</v>
       </c>
-      <c r="F3" s="2">
+      <c r="K3">
         <v>48600</v>
       </c>
-      <c r="G3">
-        <v>81000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L3">
+        <v>32400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>6113400000</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C4">
         <v>3701000002</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4">
+        <v>17</v>
+      </c>
+      <c r="E4" s="2">
+        <v>46017</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4">
+        <v>2025</v>
+      </c>
+      <c r="H4">
+        <v>105352</v>
+      </c>
+      <c r="I4">
+        <v>111723</v>
+      </c>
+      <c r="J4">
         <v>115500</v>
       </c>
-      <c r="F4" s="2">
+      <c r="K4">
         <v>69300</v>
       </c>
-      <c r="G4">
-        <v>115500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <v>46200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>6113400000</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C5">
         <v>3804000008</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5">
+        <v>19</v>
+      </c>
+      <c r="E5" s="2">
+        <v>45960</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5">
+        <v>2025</v>
+      </c>
+      <c r="H5">
+        <v>9849</v>
+      </c>
+      <c r="I5">
+        <v>11312</v>
+      </c>
+      <c r="J5">
         <v>10500</v>
       </c>
-      <c r="F5" s="2">
+      <c r="K5">
         <v>6300</v>
       </c>
-      <c r="G5">
-        <v>10500</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L5">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>6113400000</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C6">
         <v>3808000007</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6">
+        <v>20</v>
+      </c>
+      <c r="E6" s="2">
+        <v>45737</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6">
+        <v>2025</v>
+      </c>
+      <c r="H6">
+        <v>9396</v>
+      </c>
+      <c r="I6">
+        <v>7725</v>
+      </c>
+      <c r="J6">
         <v>9000</v>
       </c>
-      <c r="F6" s="2">
+      <c r="K6">
         <v>5400</v>
       </c>
-      <c r="G6">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L6">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6123400000</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C7">
         <v>3203000007</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7">
+        <v>23</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45995</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7">
+        <v>2025</v>
+      </c>
+      <c r="H7">
+        <v>4806</v>
+      </c>
+      <c r="I7">
+        <v>6068</v>
+      </c>
+      <c r="J7">
         <v>6000</v>
       </c>
-      <c r="F7" s="2">
+      <c r="K7">
         <v>3600</v>
       </c>
-      <c r="G7">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L7">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6123400000</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C8">
         <v>3203000009</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8">
+        <v>24</v>
+      </c>
+      <c r="E8" s="2">
+        <v>45926</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8">
+        <v>2025</v>
+      </c>
+      <c r="H8">
+        <v>13985</v>
+      </c>
+      <c r="I8">
+        <v>16946</v>
+      </c>
+      <c r="J8">
         <v>15000</v>
       </c>
-      <c r="F8" s="2">
+      <c r="K8">
         <v>9000</v>
       </c>
-      <c r="G8">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>6123400000</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C9">
         <v>3204000004</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9">
+        <v>25</v>
+      </c>
+      <c r="E9" s="2">
+        <v>45920</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9">
+        <v>2025</v>
+      </c>
+      <c r="H9">
+        <v>283</v>
+      </c>
+      <c r="I9">
+        <v>289</v>
+      </c>
+      <c r="J9">
         <v>300</v>
       </c>
-      <c r="F9">
+      <c r="K9">
         <v>180</v>
       </c>
-      <c r="G9">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>6123400000</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C10">
         <v>3206000001</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10">
+        <v>26</v>
+      </c>
+      <c r="E10" s="2">
+        <v>45833</v>
+      </c>
+      <c r="F10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10">
+        <v>2025</v>
+      </c>
+      <c r="H10">
+        <v>243162</v>
+      </c>
+      <c r="I10">
+        <v>180298</v>
+      </c>
+      <c r="J10">
         <v>198000</v>
       </c>
-      <c r="F10" s="2">
+      <c r="K10">
         <v>118800</v>
       </c>
-      <c r="G10">
-        <v>198000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L10">
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>6123400000</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C11">
         <v>3701000001</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11">
+        <v>28</v>
+      </c>
+      <c r="E11" s="2">
+        <v>45998</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11">
+        <v>2025</v>
+      </c>
+      <c r="H11">
+        <v>169093</v>
+      </c>
+      <c r="I11">
+        <v>197999</v>
+      </c>
+      <c r="J11">
         <v>180000</v>
       </c>
-      <c r="F11" s="2">
+      <c r="K11">
         <v>108000</v>
       </c>
-      <c r="G11">
-        <v>180000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L11">
+        <v>72000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>6123400000</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C12">
         <v>3703000001</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12">
+        <v>29</v>
+      </c>
+      <c r="E12" s="2">
+        <v>45811</v>
+      </c>
+      <c r="F12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12">
+        <v>2025</v>
+      </c>
+      <c r="H12">
+        <v>67763</v>
+      </c>
+      <c r="I12">
+        <v>51941</v>
+      </c>
+      <c r="J12">
         <v>60000</v>
       </c>
-      <c r="F12" s="2">
+      <c r="K12">
         <v>36000</v>
       </c>
-      <c r="G12">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L12">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>6123400000</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C13">
         <v>3804000003</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13">
+        <v>30</v>
+      </c>
+      <c r="E13" s="2">
+        <v>45969</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13">
+        <v>2025</v>
+      </c>
+      <c r="H13">
+        <v>1192</v>
+      </c>
+      <c r="I13">
+        <v>1320</v>
+      </c>
+      <c r="J13">
         <v>1500</v>
       </c>
-      <c r="F13">
+      <c r="K13">
         <v>900</v>
       </c>
-      <c r="G13">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L13">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>6123400000</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C14">
         <v>3805000009</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14">
+        <v>31</v>
+      </c>
+      <c r="E14" s="2">
+        <v>45679</v>
+      </c>
+      <c r="F14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14">
+        <v>2025</v>
+      </c>
+      <c r="H14">
+        <v>3466694</v>
+      </c>
+      <c r="I14">
+        <v>2606491</v>
+      </c>
+      <c r="J14">
         <v>3000000</v>
       </c>
-      <c r="F14" s="2">
+      <c r="K14">
         <v>1800000</v>
       </c>
-      <c r="G14">
-        <v>3000000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L14">
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>6123400000</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C15">
         <v>3805000007</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15">
+        <v>32</v>
+      </c>
+      <c r="E15" s="2">
+        <v>45875</v>
+      </c>
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15">
+        <v>2025</v>
+      </c>
+      <c r="H15">
+        <v>6380</v>
+      </c>
+      <c r="I15">
+        <v>6580</v>
+      </c>
+      <c r="J15">
         <v>6000</v>
       </c>
-      <c r="F15" s="2">
+      <c r="K15">
         <v>3600</v>
       </c>
-      <c r="G15">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L15">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>6123400000</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C16">
         <v>3808000002</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16">
+        <v>33</v>
+      </c>
+      <c r="E16" s="2">
+        <v>45710</v>
+      </c>
+      <c r="F16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16">
+        <v>2025</v>
+      </c>
+      <c r="H16">
+        <v>826160</v>
+      </c>
+      <c r="I16">
+        <v>895276</v>
+      </c>
+      <c r="J16">
         <v>780000</v>
       </c>
-      <c r="F16" s="2">
+      <c r="K16">
         <v>468000</v>
       </c>
-      <c r="G16">
-        <v>780000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L16">
+        <v>312000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>6123400000</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C17">
         <v>3808000005</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17">
+        <v>34</v>
+      </c>
+      <c r="E17" s="2">
+        <v>46005</v>
+      </c>
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17">
+        <v>2025</v>
+      </c>
+      <c r="H17">
+        <v>270019</v>
+      </c>
+      <c r="I17">
+        <v>289572</v>
+      </c>
+      <c r="J17">
         <v>300000</v>
       </c>
-      <c r="F17" s="2">
+      <c r="K17">
         <v>180000</v>
       </c>
-      <c r="G17">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L17">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>6123400000</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C18">
         <v>3808000007</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18">
+        <v>35</v>
+      </c>
+      <c r="E18" s="2">
+        <v>45702</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18">
+        <v>2025</v>
+      </c>
+      <c r="H18">
+        <v>252354</v>
+      </c>
+      <c r="I18">
+        <v>250090</v>
+      </c>
+      <c r="J18">
         <v>223500</v>
       </c>
-      <c r="F18" s="2">
+      <c r="K18">
         <v>134100</v>
       </c>
-      <c r="G18">
-        <v>223500</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L18">
+        <v>89400</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>6123400000</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C19">
         <v>3808000016</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19">
+        <v>36</v>
+      </c>
+      <c r="E19" s="2">
+        <v>45978</v>
+      </c>
+      <c r="F19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19">
+        <v>2025</v>
+      </c>
+      <c r="H19">
+        <v>2719</v>
+      </c>
+      <c r="I19">
+        <v>2914</v>
+      </c>
+      <c r="J19">
         <v>3000</v>
       </c>
-      <c r="F19" s="2">
+      <c r="K19">
         <v>1800</v>
       </c>
-      <c r="G19">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L19">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>6133400000</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C20">
         <v>3203000003</v>
       </c>
       <c r="D20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20">
+        <v>38</v>
+      </c>
+      <c r="E20" s="2">
+        <v>45769</v>
+      </c>
+      <c r="F20" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20">
+        <v>2025</v>
+      </c>
+      <c r="H20">
+        <v>333579</v>
+      </c>
+      <c r="I20">
+        <v>267994</v>
+      </c>
+      <c r="J20">
         <v>271500</v>
       </c>
-      <c r="F20" s="2">
+      <c r="K20">
         <v>162900</v>
       </c>
-      <c r="G20">
-        <v>271500</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L20">
+        <v>108600</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>6133400000</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C21">
         <v>3203000004</v>
       </c>
       <c r="D21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21">
+        <v>39</v>
+      </c>
+      <c r="E21" s="2">
+        <v>46020</v>
+      </c>
+      <c r="F21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21">
+        <v>2025</v>
+      </c>
+      <c r="H21">
+        <v>52359</v>
+      </c>
+      <c r="I21">
+        <v>59815</v>
+      </c>
+      <c r="J21">
         <v>60000</v>
       </c>
-      <c r="F21" s="2">
+      <c r="K21">
         <v>36000</v>
       </c>
-      <c r="G21">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L21">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>6133400000</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C22">
         <v>3203000009</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22">
+        <v>24</v>
+      </c>
+      <c r="E22" s="2">
+        <v>46017</v>
+      </c>
+      <c r="F22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22">
+        <v>2025</v>
+      </c>
+      <c r="H22">
+        <v>70582</v>
+      </c>
+      <c r="I22">
+        <v>59507</v>
+      </c>
+      <c r="J22">
         <v>60000</v>
       </c>
-      <c r="F22" s="2">
+      <c r="K22">
         <v>36000</v>
       </c>
-      <c r="G22">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L22">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>6133400000</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C23">
         <v>3204000002</v>
       </c>
       <c r="D23" t="s">
-        <v>31</v>
-      </c>
-      <c r="E23">
+        <v>40</v>
+      </c>
+      <c r="E23" s="2">
+        <v>45692</v>
+      </c>
+      <c r="F23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23">
+        <v>2025</v>
+      </c>
+      <c r="H23">
+        <v>2662576</v>
+      </c>
+      <c r="I23">
+        <v>2416094</v>
+      </c>
+      <c r="J23">
         <v>2358000</v>
       </c>
-      <c r="F23" s="2">
+      <c r="K23">
         <v>1414800</v>
       </c>
-      <c r="G23">
-        <v>2358000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L23">
+        <v>943200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>6133400000</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C24">
         <v>3701000001</v>
       </c>
       <c r="D24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24">
+        <v>28</v>
+      </c>
+      <c r="E24" s="2">
+        <v>45717</v>
+      </c>
+      <c r="F24" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24">
+        <v>2025</v>
+      </c>
+      <c r="H24">
+        <v>196506</v>
+      </c>
+      <c r="I24">
+        <v>193007</v>
+      </c>
+      <c r="J24">
         <v>210000</v>
       </c>
-      <c r="F24" s="2">
+      <c r="K24">
         <v>126000</v>
       </c>
-      <c r="G24">
-        <v>210000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L24">
+        <v>84000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>6133400000</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C25">
         <v>3703000001</v>
       </c>
       <c r="D25" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25">
+        <v>41</v>
+      </c>
+      <c r="E25" s="2">
+        <v>45828</v>
+      </c>
+      <c r="F25" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25">
+        <v>2025</v>
+      </c>
+      <c r="H25">
+        <v>19853125</v>
+      </c>
+      <c r="I25">
+        <v>20002039</v>
+      </c>
+      <c r="J25">
         <v>18117000</v>
       </c>
-      <c r="F25" s="2">
+      <c r="K25">
         <v>10870200</v>
       </c>
-      <c r="G25">
-        <v>18117000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L25">
+        <v>7246800</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>6133400000</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C26">
         <v>3805000007</v>
       </c>
       <c r="D26" t="s">
-        <v>33</v>
-      </c>
-      <c r="E26">
+        <v>42</v>
+      </c>
+      <c r="E26" s="2">
+        <v>45882</v>
+      </c>
+      <c r="F26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26">
+        <v>2025</v>
+      </c>
+      <c r="H26">
+        <v>496446</v>
+      </c>
+      <c r="I26">
+        <v>489852</v>
+      </c>
+      <c r="J26">
         <v>465000</v>
       </c>
-      <c r="F26" s="2">
+      <c r="K26">
         <v>279000</v>
       </c>
-      <c r="G26">
-        <v>465000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L26">
+        <v>186000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>6133400000</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C27">
         <v>3806000003</v>
       </c>
       <c r="D27" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27">
+        <v>43</v>
+      </c>
+      <c r="E27" s="2">
+        <v>45837</v>
+      </c>
+      <c r="F27" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27">
+        <v>2025</v>
+      </c>
+      <c r="H27">
+        <v>6089286</v>
+      </c>
+      <c r="I27">
+        <v>8057911</v>
+      </c>
+      <c r="J27">
         <v>7320000</v>
       </c>
-      <c r="F27" s="2">
+      <c r="K27">
         <v>4392000</v>
       </c>
-      <c r="G27">
-        <v>7320000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L27">
+        <v>2928000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>6133400000</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C28">
         <v>3808000016</v>
       </c>
       <c r="D28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="2">
+        <v>45787</v>
+      </c>
+      <c r="F28" t="s">
         <v>27</v>
       </c>
-      <c r="E28">
+      <c r="G28">
+        <v>2025</v>
+      </c>
+      <c r="H28">
+        <v>3665</v>
+      </c>
+      <c r="I28">
+        <v>2939</v>
+      </c>
+      <c r="J28">
         <v>3000</v>
       </c>
-      <c r="F28" s="2">
+      <c r="K28">
         <v>1800</v>
       </c>
-      <c r="G28">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L28">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>6143400000</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C29">
         <v>3701000001</v>
       </c>
       <c r="D29" t="s">
-        <v>36</v>
-      </c>
-      <c r="E29">
+        <v>45</v>
+      </c>
+      <c r="E29" s="2">
+        <v>45959</v>
+      </c>
+      <c r="F29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29">
+        <v>2025</v>
+      </c>
+      <c r="H29">
+        <v>34702</v>
+      </c>
+      <c r="I29">
+        <v>45864</v>
+      </c>
+      <c r="J29">
         <v>45000</v>
       </c>
-      <c r="F29" s="2">
+      <c r="K29">
         <v>27000</v>
       </c>
-      <c r="G29">
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L29">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>6143400000</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C30">
         <v>3703000001</v>
       </c>
       <c r="D30" t="s">
-        <v>20</v>
-      </c>
-      <c r="E30">
+        <v>29</v>
+      </c>
+      <c r="E30" s="2">
+        <v>45998</v>
+      </c>
+      <c r="F30" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30">
+        <v>2025</v>
+      </c>
+      <c r="H30">
         <v>0</v>
       </c>
-      <c r="F30">
+      <c r="I30">
         <v>0</v>
       </c>
-      <c r="G30">
+      <c r="J30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>6143400000</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C31">
         <v>3806000003</v>
       </c>
       <c r="D31" t="s">
-        <v>34</v>
-      </c>
-      <c r="E31">
+        <v>43</v>
+      </c>
+      <c r="E31" s="2">
+        <v>45983</v>
+      </c>
+      <c r="F31" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31">
+        <v>2025</v>
+      </c>
+      <c r="H31">
+        <v>7513637</v>
+      </c>
+      <c r="I31">
+        <v>9212637</v>
+      </c>
+      <c r="J31">
         <v>8664630</v>
       </c>
-      <c r="F31" s="2">
+      <c r="K31">
         <v>5198778</v>
       </c>
-      <c r="G31">
-        <v>8664630</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L31">
+        <v>3465852</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>6153400000</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C32">
         <v>3203000006</v>
       </c>
       <c r="D32" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32">
+        <v>47</v>
+      </c>
+      <c r="E32" s="2">
+        <v>45995</v>
+      </c>
+      <c r="F32" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32">
+        <v>2025</v>
+      </c>
+      <c r="H32">
+        <v>2592</v>
+      </c>
+      <c r="I32">
+        <v>2579</v>
+      </c>
+      <c r="J32">
         <v>3000</v>
       </c>
-      <c r="F32" s="2">
+      <c r="K32">
         <v>1800</v>
       </c>
-      <c r="G32">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L32">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>6153400000</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C33">
         <v>3703000001</v>
       </c>
       <c r="D33" t="s">
-        <v>20</v>
-      </c>
-      <c r="E33">
+        <v>29</v>
+      </c>
+      <c r="E33" s="2">
+        <v>45685</v>
+      </c>
+      <c r="F33" t="s">
+        <v>21</v>
+      </c>
+      <c r="G33">
+        <v>2025</v>
+      </c>
+      <c r="H33">
+        <v>3066</v>
+      </c>
+      <c r="I33">
+        <v>2576</v>
+      </c>
+      <c r="J33">
         <v>3000</v>
       </c>
-      <c r="F33" s="2">
+      <c r="K33">
         <v>1800</v>
       </c>
-      <c r="G33">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L33">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>8113400000</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C34">
         <v>3808000006</v>
       </c>
       <c r="D34" t="s">
-        <v>40</v>
-      </c>
-      <c r="E34">
+        <v>49</v>
+      </c>
+      <c r="E34" s="2">
+        <v>45981</v>
+      </c>
+      <c r="F34" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34">
+        <v>2025</v>
+      </c>
+      <c r="H34">
+        <v>113</v>
+      </c>
+      <c r="I34">
+        <v>161</v>
+      </c>
+      <c r="J34">
         <v>150</v>
       </c>
-      <c r="F34">
+      <c r="K34">
         <v>90</v>
       </c>
-      <c r="G34">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L34">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>8113400000</v>
       </c>
       <c r="B35" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C35">
         <v>3203000005</v>
       </c>
       <c r="D35" t="s">
-        <v>41</v>
-      </c>
-      <c r="E35">
+        <v>50</v>
+      </c>
+      <c r="E35" s="2">
+        <v>45943</v>
+      </c>
+      <c r="F35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35">
+        <v>2025</v>
+      </c>
+      <c r="H35">
+        <v>631</v>
+      </c>
+      <c r="I35">
+        <v>655</v>
+      </c>
+      <c r="J35">
         <v>600</v>
       </c>
-      <c r="F35">
+      <c r="K35">
         <v>360</v>
       </c>
-      <c r="G35">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L35">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>8113400000</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C36">
         <v>3205000003</v>
       </c>
       <c r="D36" t="s">
-        <v>42</v>
-      </c>
-      <c r="E36">
+        <v>51</v>
+      </c>
+      <c r="E36" s="2">
+        <v>45880</v>
+      </c>
+      <c r="F36" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36">
+        <v>2025</v>
+      </c>
+      <c r="H36">
+        <v>155</v>
+      </c>
+      <c r="I36">
+        <v>132</v>
+      </c>
+      <c r="J36">
         <v>150</v>
       </c>
-      <c r="F36">
+      <c r="K36">
         <v>90</v>
       </c>
-      <c r="G36">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L36">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>8113400000</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C37">
         <v>3804000009</v>
       </c>
       <c r="D37" t="s">
-        <v>43</v>
-      </c>
-      <c r="E37">
+        <v>52</v>
+      </c>
+      <c r="E37" s="2">
+        <v>45953</v>
+      </c>
+      <c r="F37" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37">
+        <v>2025</v>
+      </c>
+      <c r="H37">
+        <v>3223</v>
+      </c>
+      <c r="I37">
+        <v>3094</v>
+      </c>
+      <c r="J37">
         <v>3000</v>
       </c>
-      <c r="F37" s="2">
+      <c r="K37">
         <v>1800</v>
       </c>
-      <c r="G37">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L37">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>8113400000</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C38">
         <v>3806000006</v>
       </c>
       <c r="D38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E38">
+        <v>53</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45801</v>
+      </c>
+      <c r="F38" t="s">
+        <v>27</v>
+      </c>
+      <c r="G38">
+        <v>2025</v>
+      </c>
+      <c r="H38">
+        <v>2447</v>
+      </c>
+      <c r="I38">
+        <v>3109</v>
+      </c>
+      <c r="J38">
         <v>3000</v>
       </c>
-      <c r="F38" s="2">
+      <c r="K38">
         <v>1800</v>
       </c>
-      <c r="G38">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L38">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>8113400000</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C39">
         <v>3808000009</v>
       </c>
       <c r="D39" t="s">
-        <v>45</v>
-      </c>
-      <c r="E39">
+        <v>54</v>
+      </c>
+      <c r="E39" s="2">
+        <v>45665</v>
+      </c>
+      <c r="F39" t="s">
+        <v>21</v>
+      </c>
+      <c r="G39">
+        <v>2025</v>
+      </c>
+      <c r="H39">
+        <v>246</v>
+      </c>
+      <c r="I39">
+        <v>343</v>
+      </c>
+      <c r="J39">
         <v>300</v>
       </c>
-      <c r="F39">
+      <c r="K39">
         <v>180</v>
       </c>
-      <c r="G39">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L39">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>8113400000</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C40">
         <v>3808000012</v>
       </c>
       <c r="D40" t="s">
-        <v>46</v>
-      </c>
-      <c r="E40">
+        <v>55</v>
+      </c>
+      <c r="E40" s="2">
+        <v>45848</v>
+      </c>
+      <c r="F40" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40">
+        <v>2025</v>
+      </c>
+      <c r="H40">
+        <v>138577</v>
+      </c>
+      <c r="I40">
+        <v>117629</v>
+      </c>
+      <c r="J40">
         <v>120000</v>
       </c>
-      <c r="F40" s="2">
+      <c r="K40">
         <v>72000</v>
       </c>
-      <c r="G40">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L40">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>8113400000</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C41">
         <v>3808000016</v>
       </c>
       <c r="D41" t="s">
-        <v>27</v>
-      </c>
-      <c r="E41">
+        <v>36</v>
+      </c>
+      <c r="E41" s="2">
+        <v>45956</v>
+      </c>
+      <c r="F41" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41">
+        <v>2025</v>
+      </c>
+      <c r="H41">
+        <v>1476</v>
+      </c>
+      <c r="I41">
+        <v>1608</v>
+      </c>
+      <c r="J41">
         <v>1500</v>
       </c>
-      <c r="F41">
+      <c r="K41">
         <v>900</v>
       </c>
-      <c r="G41">
-        <v>1500</v>
+      <c r="L41">
+        <v>600</v>
       </c>
     </row>
   </sheetData>
